--- a/results/I3_N5_M2_T15_C200_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.175718237289</v>
+        <v>190.185718237289</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1940000057220459</v>
+        <v>0.1649999618530273</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>10.11016360191877</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.88393248259582</v>
+        <v>12.37517619638956</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.55091596648893</v>
+        <v>11.55091596648894</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.01000000000933</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79500000001101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.27000000000955</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.1750000000102</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.6600000000527</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.9250000000503</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>143.1450000000514</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.7150000000529</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.69000000000432</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.58000000000504</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61500000000336</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.720000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.41000000000352</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9849999998797</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2299999998764</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1649999998667</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.6299999998751</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.4949999998811</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66499999994629</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02499999994687</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.9749999999385</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.03999999993901</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.90999999994527</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>139.7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>150.6600000000674</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>137.9250000000651</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>143.1450000000644</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>141.7150000000659</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9849999998621</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2299999998516</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1649999998418</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6299999998503</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4949999998563</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
